--- a/xlsx/海軍_intext.xlsx
+++ b/xlsx/海軍_intext.xlsx
@@ -29,7 +29,7 @@
     <t>漢字文化圈</t>
   </si>
   <si>
-    <t>政策_政策_美國_海軍</t>
+    <t>体育运动_体育运动_橄榄球类运动_海軍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%B8%AB</t>
